--- a/Financial Analysis/EQUITIES/AMZN.xlsx
+++ b/Financial Analysis/EQUITIES/AMZN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/zxt18_ic_ac_uk/Documents/Financial Analysis/EQUITIES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4B0C06F-063B-4524-8336-D067DB2DD095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E168F5C-F3AF-464B-9386-1C818B9DAF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="3720" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7140" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="2" r:id="rId1"/>
@@ -627,7 +627,7 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|12267682887257274404</stp>
+        <stp>BDH|2556849402131974763</stp>
         <tr r="A8" s="2"/>
       </tp>
     </main>
@@ -956,13 +956,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C124"/>
+  <dimension ref="A1:C141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -980,7 +980,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>41060</v>
+        <v>40178</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -988,7 +988,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>44592</v>
+        <v>44225</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1020,1290 +1020,1477 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <f>_xll.BDH(B1,B7:C7,B2,B3,"Dir=V","Dts=S","Sort=D","Quote=C","QtTyp=P","Days=T",CONCATENATE("Per=c",B4),"DtFmt=D","UseDPDF=Y",CONCATENATE("FX=",B5),"cols=3;rows=117")</f>
-        <v>44592</v>
+        <f>_xll.BDH(B1,B7:C7,B2,B3,"Dir=V","Dts=S","Sort=D","Quote=C","QtTyp=P","Days=T",CONCATENATE("Per=c",B4),"DtFmt=D","UseDPDF=Y",CONCATENATE("FX=",B5),"cols=3;rows=134")</f>
+        <v>44225</v>
       </c>
       <c r="B8">
-        <v>2991.47</v>
+        <v>3206.2</v>
       </c>
       <c r="C8">
-        <v>76278565</v>
+        <v>71523813</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>44561</v>
+        <v>44196</v>
       </c>
       <c r="B9">
-        <v>3334.34</v>
+        <v>3256.93</v>
       </c>
       <c r="C9">
-        <v>64415077</v>
+        <v>77580395</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>44530</v>
+        <v>44165</v>
       </c>
       <c r="B10">
-        <v>3507.07</v>
+        <v>3168.04</v>
       </c>
       <c r="C10">
-        <v>75816681</v>
+        <v>90831796</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>44498</v>
+        <v>44134</v>
       </c>
       <c r="B11">
-        <v>3372.43</v>
+        <v>3036.15</v>
       </c>
       <c r="C11">
-        <v>63680713</v>
+        <v>116252115</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>44469</v>
+        <v>44104</v>
       </c>
       <c r="B12">
-        <v>3285.04</v>
+        <v>3148.73</v>
       </c>
       <c r="C12">
-        <v>62540133</v>
+        <v>115969967</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>44439</v>
+        <v>44074</v>
       </c>
       <c r="B13">
-        <v>3470.79</v>
+        <v>3450.96</v>
       </c>
       <c r="C13">
-        <v>62866974</v>
+        <v>83535226</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>44407</v>
+        <v>44043</v>
       </c>
       <c r="B14">
-        <v>3327.59</v>
+        <v>3164.68</v>
       </c>
       <c r="C14">
-        <v>83736347</v>
+        <v>127513572</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>44377</v>
+        <v>44012</v>
       </c>
       <c r="B15">
-        <v>3440.16</v>
+        <v>2758.82</v>
       </c>
       <c r="C15">
-        <v>67011137</v>
+        <v>87845661</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>44344</v>
+        <v>43980</v>
       </c>
       <c r="B16">
-        <v>3223.07</v>
+        <v>2442.37</v>
       </c>
       <c r="C16">
-        <v>75191624</v>
+        <v>82620883</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>44316</v>
+        <v>43951</v>
       </c>
       <c r="B17">
-        <v>3467.42</v>
+        <v>2474</v>
       </c>
       <c r="C17">
-        <v>76843571</v>
+        <v>124631816</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>44286</v>
+        <v>43921</v>
       </c>
       <c r="B18">
-        <v>3094.08</v>
+        <v>1949.72</v>
       </c>
       <c r="C18">
-        <v>78204991</v>
+        <v>163844938</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>44253</v>
+        <v>43889</v>
       </c>
       <c r="B19">
-        <v>3092.93</v>
+        <v>1883.75</v>
       </c>
       <c r="C19">
-        <v>72117840</v>
+        <v>92555977</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>44225</v>
+        <v>43861</v>
       </c>
       <c r="B20">
-        <v>3206.2</v>
+        <v>2008.72</v>
       </c>
       <c r="C20">
-        <v>71523813</v>
+        <v>84839255</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>44196</v>
+        <v>43830</v>
       </c>
       <c r="B21">
-        <v>3256.93</v>
+        <v>1847.84</v>
       </c>
       <c r="C21">
-        <v>77580395</v>
+        <v>68522009</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>44165</v>
+        <v>43798</v>
       </c>
       <c r="B22">
-        <v>3168.04</v>
+        <v>1800.8</v>
       </c>
       <c r="C22">
-        <v>90831796</v>
+        <v>52060472</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>44134</v>
+        <v>43769</v>
       </c>
       <c r="B23">
-        <v>3036.15</v>
+        <v>1776.66</v>
       </c>
       <c r="C23">
-        <v>116252115</v>
+        <v>72166251</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>44104</v>
+        <v>43738</v>
       </c>
       <c r="B24">
-        <v>3148.73</v>
+        <v>1735.91</v>
       </c>
       <c r="C24">
-        <v>115969967</v>
+        <v>62003799</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>44074</v>
+        <v>43707</v>
       </c>
       <c r="B25">
-        <v>3450.96</v>
+        <v>1776.29</v>
       </c>
       <c r="C25">
-        <v>83535226</v>
+        <v>79989530</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>44043</v>
+        <v>43677</v>
       </c>
       <c r="B26">
-        <v>3164.68</v>
+        <v>1866.78</v>
       </c>
       <c r="C26">
-        <v>127513572</v>
+        <v>73190847</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>44012</v>
+        <v>43644</v>
       </c>
       <c r="B27">
-        <v>2758.82</v>
+        <v>1893.63</v>
       </c>
       <c r="C27">
-        <v>87845661</v>
+        <v>74746589</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>43980</v>
+        <v>43616</v>
       </c>
       <c r="B28">
-        <v>2442.37</v>
+        <v>1775.07</v>
       </c>
       <c r="C28">
-        <v>82620883</v>
+        <v>98214360</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>43951</v>
+        <v>43585</v>
       </c>
       <c r="B29">
-        <v>2474</v>
+        <v>1926.52</v>
       </c>
       <c r="C29">
-        <v>124631816</v>
+        <v>81293632</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>43921</v>
+        <v>43553</v>
       </c>
       <c r="B30">
-        <v>1949.72</v>
+        <v>1780.75</v>
       </c>
       <c r="C30">
-        <v>163844938</v>
+        <v>100832035</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>43889</v>
+        <v>43524</v>
       </c>
       <c r="B31">
-        <v>1883.75</v>
+        <v>1639.83</v>
       </c>
       <c r="C31">
-        <v>92555977</v>
+        <v>80936924</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>43861</v>
+        <v>43496</v>
       </c>
       <c r="B32">
-        <v>2008.72</v>
+        <v>1718.73</v>
       </c>
       <c r="C32">
-        <v>84839255</v>
+        <v>134015530</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>43830</v>
+        <v>43465</v>
       </c>
       <c r="B33">
-        <v>1847.84</v>
+        <v>1501.97</v>
       </c>
       <c r="C33">
-        <v>68522009</v>
+        <v>154812304</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>43798</v>
+        <v>43434</v>
       </c>
       <c r="B34">
-        <v>1800.8</v>
+        <v>1690.17</v>
       </c>
       <c r="C34">
-        <v>52060472</v>
+        <v>139290208</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>43769</v>
+        <v>43404</v>
       </c>
       <c r="B35">
-        <v>1776.66</v>
+        <v>1598.01</v>
       </c>
       <c r="C35">
-        <v>72166251</v>
+        <v>183228552</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>43738</v>
+        <v>43371</v>
       </c>
       <c r="B36">
-        <v>1735.91</v>
+        <v>2003</v>
       </c>
       <c r="C36">
-        <v>62003799</v>
+        <v>94445693</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>43707</v>
+        <v>43343</v>
       </c>
       <c r="B37">
-        <v>1776.29</v>
+        <v>2012.71</v>
       </c>
       <c r="C37">
-        <v>79989530</v>
+        <v>96575676</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>43677</v>
+        <v>43312</v>
       </c>
       <c r="B38">
-        <v>1866.78</v>
+        <v>1777.44</v>
       </c>
       <c r="C38">
-        <v>73190847</v>
+        <v>97629820</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>43644</v>
+        <v>43280</v>
       </c>
       <c r="B39">
-        <v>1893.63</v>
+        <v>1699.8</v>
       </c>
       <c r="C39">
-        <v>74746589</v>
+        <v>85941510</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>43616</v>
+        <v>43251</v>
       </c>
       <c r="B40">
-        <v>1775.07</v>
+        <v>1629.62</v>
       </c>
       <c r="C40">
-        <v>98214360</v>
+        <v>71615299</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>43585</v>
+        <v>43220</v>
       </c>
       <c r="B41">
-        <v>1926.52</v>
+        <v>1566.13</v>
       </c>
       <c r="C41">
-        <v>81293632</v>
+        <v>129945743</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>43553</v>
+        <v>43188</v>
       </c>
       <c r="B42">
-        <v>1780.75</v>
+        <v>1447.34</v>
       </c>
       <c r="C42">
-        <v>100832035</v>
+        <v>130400151</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>43524</v>
+        <v>43159</v>
       </c>
       <c r="B43">
-        <v>1639.83</v>
+        <v>1512.45</v>
       </c>
       <c r="C43">
-        <v>80936924</v>
+        <v>137784020</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>43496</v>
+        <v>43131</v>
       </c>
       <c r="B44">
-        <v>1718.73</v>
+        <v>1450.89</v>
       </c>
       <c r="C44">
-        <v>134015530</v>
+        <v>96371290</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>43465</v>
+        <v>43098</v>
       </c>
       <c r="B45">
-        <v>1501.97</v>
+        <v>1169.47</v>
       </c>
       <c r="C45">
-        <v>154812304</v>
+        <v>57760041</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>43434</v>
+        <v>43069</v>
       </c>
       <c r="B46">
-        <v>1690.17</v>
+        <v>1176.75</v>
       </c>
       <c r="C46">
-        <v>139290208</v>
+        <v>77165104</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>43404</v>
+        <v>43039</v>
       </c>
       <c r="B47">
-        <v>1598.01</v>
+        <v>1105.28</v>
       </c>
       <c r="C47">
-        <v>183228552</v>
+        <v>83334078</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>43371</v>
+        <v>43007</v>
       </c>
       <c r="B48">
-        <v>2003</v>
+        <v>961.35</v>
       </c>
       <c r="C48">
-        <v>94445693</v>
+        <v>59407011</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>43343</v>
+        <v>42978</v>
       </c>
       <c r="B49">
-        <v>2012.71</v>
+        <v>980.6</v>
       </c>
       <c r="C49">
-        <v>96575676</v>
+        <v>77391712</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>43312</v>
+        <v>42947</v>
       </c>
       <c r="B50">
-        <v>1777.44</v>
+        <v>987.78</v>
       </c>
       <c r="C50">
-        <v>97629820</v>
+        <v>78812208</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>43280</v>
+        <v>42916</v>
       </c>
       <c r="B51">
-        <v>1699.8</v>
+        <v>968</v>
       </c>
       <c r="C51">
-        <v>85941510</v>
+        <v>96135434</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>43251</v>
+        <v>42886</v>
       </c>
       <c r="B52">
-        <v>1629.62</v>
+        <v>994.62</v>
       </c>
       <c r="C52">
-        <v>71615299</v>
+        <v>76219049</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>43220</v>
+        <v>42853</v>
       </c>
       <c r="B53">
-        <v>1566.13</v>
+        <v>924.99</v>
       </c>
       <c r="C53">
-        <v>129945743</v>
+        <v>73539900</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>43188</v>
+        <v>42825</v>
       </c>
       <c r="B54">
-        <v>1447.34</v>
+        <v>886.54</v>
       </c>
       <c r="C54">
-        <v>130400151</v>
+        <v>60722752</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>43159</v>
+        <v>42794</v>
       </c>
       <c r="B55">
-        <v>1512.45</v>
+        <v>845.04</v>
       </c>
       <c r="C55">
-        <v>137784020</v>
+        <v>71748231</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>43131</v>
+        <v>42766</v>
       </c>
       <c r="B56">
-        <v>1450.89</v>
+        <v>823.48</v>
       </c>
       <c r="C56">
-        <v>96371290</v>
+        <v>70714587</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>43098</v>
+        <v>42734</v>
       </c>
       <c r="B57">
-        <v>1169.47</v>
+        <v>749.87</v>
       </c>
       <c r="C57">
-        <v>57760041</v>
+        <v>73660584</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>43069</v>
+        <v>42704</v>
       </c>
       <c r="B58">
-        <v>1176.75</v>
+        <v>750.57</v>
       </c>
       <c r="C58">
-        <v>77165104</v>
+        <v>110085967</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>43039</v>
+        <v>42674</v>
       </c>
       <c r="B59">
-        <v>1105.28</v>
+        <v>789.82</v>
       </c>
       <c r="C59">
-        <v>83334078</v>
+        <v>77063812</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>43007</v>
+        <v>42643</v>
       </c>
       <c r="B60">
-        <v>961.35</v>
+        <v>837.31</v>
       </c>
       <c r="C60">
-        <v>59407011</v>
+        <v>67354133</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>42978</v>
+        <v>42613</v>
       </c>
       <c r="B61">
-        <v>980.6</v>
+        <v>769.16</v>
       </c>
       <c r="C61">
-        <v>77391712</v>
+        <v>50000397</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>42947</v>
+        <v>42580</v>
       </c>
       <c r="B62">
-        <v>987.78</v>
+        <v>758.81</v>
       </c>
       <c r="C62">
-        <v>78812208</v>
+        <v>68630919</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>42916</v>
+        <v>42551</v>
       </c>
       <c r="B63">
-        <v>968</v>
+        <v>715.62</v>
       </c>
       <c r="C63">
-        <v>96135434</v>
+        <v>74556809</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>42886</v>
+        <v>42521</v>
       </c>
       <c r="B64">
-        <v>994.62</v>
+        <v>722.79</v>
       </c>
       <c r="C64">
-        <v>76219049</v>
+        <v>90623145</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>42853</v>
+        <v>42489</v>
       </c>
       <c r="B65">
-        <v>924.99</v>
+        <v>659.59</v>
       </c>
       <c r="C65">
-        <v>73539900</v>
+        <v>78464320</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>42825</v>
+        <v>42460</v>
       </c>
       <c r="B66">
-        <v>886.54</v>
+        <v>593.64</v>
       </c>
       <c r="C66">
-        <v>60722752</v>
+        <v>94014971</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>42794</v>
+        <v>42429</v>
       </c>
       <c r="B67">
-        <v>845.04</v>
+        <v>552.52</v>
       </c>
       <c r="C67">
-        <v>71748231</v>
+        <v>124144797</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>42766</v>
+        <v>42398</v>
       </c>
       <c r="B68">
-        <v>823.48</v>
+        <v>587</v>
       </c>
       <c r="C68">
-        <v>70714587</v>
+        <v>130200780</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>42734</v>
+        <v>42369</v>
       </c>
       <c r="B69">
-        <v>749.87</v>
+        <v>675.89</v>
       </c>
       <c r="C69">
-        <v>73660584</v>
+        <v>90220804</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>42704</v>
+        <v>42338</v>
       </c>
       <c r="B70">
-        <v>750.57</v>
+        <v>664.8</v>
       </c>
       <c r="C70">
-        <v>110085967</v>
+        <v>87304837</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>42674</v>
+        <v>42307</v>
       </c>
       <c r="B71">
-        <v>789.82</v>
+        <v>625.9</v>
       </c>
       <c r="C71">
-        <v>77063812</v>
+        <v>97188843</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>42643</v>
+        <v>42277</v>
       </c>
       <c r="B72">
-        <v>837.31</v>
+        <v>511.89</v>
       </c>
       <c r="C72">
-        <v>67354133</v>
+        <v>76768850</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>42613</v>
+        <v>42247</v>
       </c>
       <c r="B73">
-        <v>769.16</v>
+        <v>512.89</v>
       </c>
       <c r="C73">
-        <v>50000397</v>
+        <v>82915685</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>42580</v>
+        <v>42216</v>
       </c>
       <c r="B74">
-        <v>758.81</v>
+        <v>536.15</v>
       </c>
       <c r="C74">
-        <v>68630919</v>
+        <v>102069942</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>42551</v>
+        <v>42185</v>
       </c>
       <c r="B75">
-        <v>715.62</v>
+        <v>434.09</v>
       </c>
       <c r="C75">
-        <v>74556809</v>
+        <v>54989227</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>42521</v>
+        <v>42153</v>
       </c>
       <c r="B76">
-        <v>722.79</v>
+        <v>429.23</v>
       </c>
       <c r="C76">
-        <v>90623145</v>
+        <v>51984199</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>42489</v>
+        <v>42124</v>
       </c>
       <c r="B77">
-        <v>659.59</v>
+        <v>421.78</v>
       </c>
       <c r="C77">
-        <v>78464320</v>
+        <v>84404887</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>42460</v>
+        <v>42094</v>
       </c>
       <c r="B78">
-        <v>593.64</v>
+        <v>372.1</v>
       </c>
       <c r="C78">
-        <v>94014971</v>
+        <v>55502746</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>42429</v>
+        <v>42062</v>
       </c>
       <c r="B79">
-        <v>552.52</v>
+        <v>380.16</v>
       </c>
       <c r="C79">
-        <v>124144797</v>
+        <v>70847240</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>42398</v>
+        <v>42034</v>
       </c>
       <c r="B80">
-        <v>587</v>
+        <v>354.53</v>
       </c>
       <c r="C80">
-        <v>130200780</v>
+        <v>103061942</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>42369</v>
+        <v>42004</v>
       </c>
       <c r="B81">
-        <v>675.89</v>
+        <v>310.35000000000002</v>
       </c>
       <c r="C81">
-        <v>90220804</v>
+        <v>86874154</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>42338</v>
+        <v>41971</v>
       </c>
       <c r="B82">
-        <v>664.8</v>
+        <v>338.64</v>
       </c>
       <c r="C82">
-        <v>87304837</v>
+        <v>68993021</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>42307</v>
+        <v>41943</v>
       </c>
       <c r="B83">
-        <v>625.9</v>
+        <v>305.45999999999998</v>
       </c>
       <c r="C83">
-        <v>97188843</v>
+        <v>111120640</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>42277</v>
+        <v>41912</v>
       </c>
       <c r="B84">
-        <v>511.89</v>
+        <v>322.44</v>
       </c>
       <c r="C84">
-        <v>76768850</v>
+        <v>68101189</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>42247</v>
+        <v>41880</v>
       </c>
       <c r="B85">
-        <v>512.89</v>
+        <v>339.04</v>
       </c>
       <c r="C85">
-        <v>82915685</v>
+        <v>62078025</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>42216</v>
+        <v>41851</v>
       </c>
       <c r="B86">
-        <v>536.15</v>
+        <v>312.99</v>
       </c>
       <c r="C86">
-        <v>102069942</v>
+        <v>99490741</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>42185</v>
+        <v>41820</v>
       </c>
       <c r="B87">
-        <v>434.09</v>
+        <v>324.77999999999997</v>
       </c>
       <c r="C87">
-        <v>54989227</v>
+        <v>76634661</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>42153</v>
+        <v>41789</v>
       </c>
       <c r="B88">
-        <v>429.23</v>
+        <v>312.55</v>
       </c>
       <c r="C88">
-        <v>51984199</v>
+        <v>78608877</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>42124</v>
+        <v>41759</v>
       </c>
       <c r="B89">
-        <v>421.78</v>
+        <v>304.13</v>
       </c>
       <c r="C89">
-        <v>84404887</v>
+        <v>138318802</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>42094</v>
+        <v>41729</v>
       </c>
       <c r="B90">
-        <v>372.1</v>
+        <v>336.36500000000001</v>
       </c>
       <c r="C90">
-        <v>55502746</v>
+        <v>75312571</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>42062</v>
+        <v>41698</v>
       </c>
       <c r="B91">
-        <v>380.16</v>
+        <v>362.1</v>
       </c>
       <c r="C91">
-        <v>70847240</v>
+        <v>83112465</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>42034</v>
+        <v>41670</v>
       </c>
       <c r="B92">
-        <v>354.53</v>
+        <v>358.69</v>
       </c>
       <c r="C92">
-        <v>103061942</v>
+        <v>81581111</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>42004</v>
+        <v>41639</v>
       </c>
       <c r="B93">
-        <v>310.35000000000002</v>
+        <v>398.79</v>
       </c>
       <c r="C93">
-        <v>86874154</v>
+        <v>55737811</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>41971</v>
+        <v>41607</v>
       </c>
       <c r="B94">
-        <v>338.64</v>
+        <v>393.62</v>
       </c>
       <c r="C94">
-        <v>68993021</v>
+        <v>54246045</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>41943</v>
+        <v>41578</v>
       </c>
       <c r="B95">
-        <v>305.45999999999998</v>
+        <v>364.03</v>
       </c>
       <c r="C95">
-        <v>111120640</v>
+        <v>77363561</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>41912</v>
+        <v>41547</v>
       </c>
       <c r="B96">
-        <v>322.44</v>
+        <v>312.64</v>
       </c>
       <c r="C96">
-        <v>68101189</v>
+        <v>43504823</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>41880</v>
+        <v>41516</v>
       </c>
       <c r="B97">
-        <v>339.04</v>
+        <v>280.98</v>
       </c>
       <c r="C97">
-        <v>62078025</v>
+        <v>43808709</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>41851</v>
+        <v>41486</v>
       </c>
       <c r="B98">
-        <v>312.99</v>
+        <v>301.22000000000003</v>
       </c>
       <c r="C98">
-        <v>99490741</v>
+        <v>67640977</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>41820</v>
+        <v>41453</v>
       </c>
       <c r="B99">
-        <v>324.77999999999997</v>
+        <v>277.69</v>
       </c>
       <c r="C99">
-        <v>76634661</v>
+        <v>58597336</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>41789</v>
+        <v>41425</v>
       </c>
       <c r="B100">
-        <v>312.55</v>
+        <v>269.2</v>
       </c>
       <c r="C100">
-        <v>78608877</v>
+        <v>59068021</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>41759</v>
+        <v>41394</v>
       </c>
       <c r="B101">
-        <v>304.13</v>
+        <v>253.81</v>
       </c>
       <c r="C101">
-        <v>138318802</v>
+        <v>76945608</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>41729</v>
+        <v>41361</v>
       </c>
       <c r="B102">
-        <v>336.36500000000001</v>
+        <v>266.49</v>
       </c>
       <c r="C102">
-        <v>75312571</v>
+        <v>58524057</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>41698</v>
+        <v>41333</v>
       </c>
       <c r="B103">
-        <v>362.1</v>
+        <v>264.27</v>
       </c>
       <c r="C103">
-        <v>83112465</v>
+        <v>68686998</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>41670</v>
+        <v>41305</v>
       </c>
       <c r="B104">
-        <v>358.69</v>
+        <v>265.5</v>
       </c>
       <c r="C104">
-        <v>81581111</v>
+        <v>84264285</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>41639</v>
+        <v>41274</v>
       </c>
       <c r="B105">
-        <v>398.79</v>
+        <v>250.87</v>
       </c>
       <c r="C105">
-        <v>55737811</v>
+        <v>60892664</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>41607</v>
+        <v>41243</v>
       </c>
       <c r="B106">
-        <v>393.62</v>
+        <v>252.05</v>
       </c>
       <c r="C106">
-        <v>54246045</v>
+        <v>67239495</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>41578</v>
+        <v>41213</v>
       </c>
       <c r="B107">
-        <v>364.03</v>
+        <v>232.893</v>
       </c>
       <c r="C107">
-        <v>77363561</v>
+        <v>81591302</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>41547</v>
+        <v>41180</v>
       </c>
       <c r="B108">
-        <v>312.64</v>
+        <v>254.32</v>
       </c>
       <c r="C108">
-        <v>43504823</v>
+        <v>63589155</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>41516</v>
+        <v>41152</v>
       </c>
       <c r="B109">
-        <v>280.98</v>
+        <v>248.27</v>
       </c>
       <c r="C109">
-        <v>43808709</v>
+        <v>60204487</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>41486</v>
+        <v>41121</v>
       </c>
       <c r="B110">
-        <v>301.22000000000003</v>
+        <v>233.3</v>
       </c>
       <c r="C110">
-        <v>67640977</v>
+        <v>77371522</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>41453</v>
+        <v>41089</v>
       </c>
       <c r="B111">
-        <v>277.69</v>
+        <v>228.35</v>
       </c>
       <c r="C111">
-        <v>58597336</v>
+        <v>65770950</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>41425</v>
+        <v>41060</v>
       </c>
       <c r="B112">
-        <v>269.2</v>
+        <v>212.91</v>
       </c>
       <c r="C112">
-        <v>59068021</v>
+        <v>92805432</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>41394</v>
+        <v>41029</v>
       </c>
       <c r="B113">
-        <v>253.81</v>
+        <v>231.9</v>
       </c>
       <c r="C113">
-        <v>76945608</v>
+        <v>110558808</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>41361</v>
+        <v>40998</v>
       </c>
       <c r="B114">
-        <v>266.49</v>
+        <v>202.51</v>
       </c>
       <c r="C114">
-        <v>58524057</v>
+        <v>112999710</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>41333</v>
+        <v>40968</v>
       </c>
       <c r="B115">
-        <v>264.27</v>
+        <v>179.69</v>
       </c>
       <c r="C115">
-        <v>68686998</v>
+        <v>146626240</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>41305</v>
+        <v>40939</v>
       </c>
       <c r="B116">
-        <v>265.5</v>
+        <v>194.44</v>
       </c>
       <c r="C116">
-        <v>84264285</v>
+        <v>110583766</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>41274</v>
+        <v>40907</v>
       </c>
       <c r="B117">
-        <v>250.87</v>
+        <v>173.1</v>
       </c>
       <c r="C117">
-        <v>60892664</v>
+        <v>125627006</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>41243</v>
+        <v>40877</v>
       </c>
       <c r="B118">
-        <v>252.05</v>
+        <v>192.29</v>
       </c>
       <c r="C118">
-        <v>67239495</v>
+        <v>136559479</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>41213</v>
+        <v>40847</v>
       </c>
       <c r="B119">
-        <v>232.893</v>
+        <v>213.51</v>
       </c>
       <c r="C119">
-        <v>81591302</v>
+        <v>159274559</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>41180</v>
+        <v>40816</v>
       </c>
       <c r="B120">
-        <v>254.32</v>
+        <v>216.23</v>
       </c>
       <c r="C120">
-        <v>63589155</v>
+        <v>143676580</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>41152</v>
+        <v>40786</v>
       </c>
       <c r="B121">
-        <v>248.27</v>
+        <v>215.23</v>
       </c>
       <c r="C121">
-        <v>60204487</v>
+        <v>155250229</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>41121</v>
+        <v>40753</v>
       </c>
       <c r="B122">
-        <v>233.3</v>
+        <v>222.52</v>
       </c>
       <c r="C122">
-        <v>77371522</v>
+        <v>92848293</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>41089</v>
+        <v>40724</v>
       </c>
       <c r="B123">
-        <v>228.35</v>
+        <v>204.49</v>
       </c>
       <c r="C123">
-        <v>65770950</v>
+        <v>95601236</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>41060</v>
+        <v>40694</v>
       </c>
       <c r="B124">
-        <v>212.91</v>
+        <v>196.69</v>
       </c>
       <c r="C124">
-        <v>92805432</v>
+        <v>106355804</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>40662</v>
+      </c>
+      <c r="B125">
+        <v>195.81</v>
+      </c>
+      <c r="C125">
+        <v>116805379</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B126">
+        <v>180.13</v>
+      </c>
+      <c r="C126">
+        <v>119022379</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>40602</v>
+      </c>
+      <c r="B127">
+        <v>173.29</v>
+      </c>
+      <c r="C127">
+        <v>95851995</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>40574</v>
+      </c>
+      <c r="B128">
+        <v>169.64</v>
+      </c>
+      <c r="C128">
+        <v>113664552</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>40543</v>
+      </c>
+      <c r="B129">
+        <v>180</v>
+      </c>
+      <c r="C129">
+        <v>93728979</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>40512</v>
+      </c>
+      <c r="B130">
+        <v>175.4</v>
+      </c>
+      <c r="C130">
+        <v>131120819</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>40480</v>
+      </c>
+      <c r="B131">
+        <v>165.23</v>
+      </c>
+      <c r="C131">
+        <v>143079494</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>40451</v>
+      </c>
+      <c r="B132">
+        <v>157.06</v>
+      </c>
+      <c r="C132">
+        <v>134393787</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>40421</v>
+      </c>
+      <c r="B133">
+        <v>124.83</v>
+      </c>
+      <c r="C133">
+        <v>113508494</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>40389</v>
+      </c>
+      <c r="B134">
+        <v>117.89</v>
+      </c>
+      <c r="C134">
+        <v>175351534</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>40359</v>
+      </c>
+      <c r="B135">
+        <v>109.26</v>
+      </c>
+      <c r="C135">
+        <v>133432304</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>40326</v>
+      </c>
+      <c r="B136">
+        <v>125.46</v>
+      </c>
+      <c r="C136">
+        <v>141173366</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>40298</v>
+      </c>
+      <c r="B137">
+        <v>137.1</v>
+      </c>
+      <c r="C137">
+        <v>173061421</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>40268</v>
+      </c>
+      <c r="B138">
+        <v>135.77000000000001</v>
+      </c>
+      <c r="C138">
+        <v>158100425</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>40235</v>
+      </c>
+      <c r="B139">
+        <v>118.4</v>
+      </c>
+      <c r="C139">
+        <v>210201237</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>40207</v>
+      </c>
+      <c r="B140">
+        <v>125.41</v>
+      </c>
+      <c r="C140">
+        <v>230957425</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>40178</v>
+      </c>
+      <c r="B141">
+        <v>134.52000000000001</v>
+      </c>
+      <c r="C141">
+        <v>207533373</v>
       </c>
     </row>
   </sheetData>
@@ -2544,7 +2731,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4058B1B9-E033-4DC8-8443-E8D155B81A4B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6038EEE-777F-4488-B093-9CF3AE3EE62D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -2563,7 +2750,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EB9E267-A6FC-4BA3-B749-94AEBE01EEDC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F796E74-3DB4-4818-A4D5-9A3E05467261}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
@@ -2571,18 +2758,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DD8FCCF-3E25-4F6B-A4DC-3AA45F96DF87}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C9E1D4F-D69D-4E26-A140-E7DB2096F612}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="bac3e513-b8ad-4e95-8656-605fcb31fd33"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="bac3e513-b8ad-4e95-8656-605fcb31fd33"/>
     <ds:schemaRef ds:uri="8256a770-083e-4b7c-814e-c5dff0793361"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>